--- a/docs/MapaDeEntregables.xlsx
+++ b/docs/MapaDeEntregables.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa de entregables" sheetId="1" r:id="rId1"/>
+    <sheet name="Scope" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Octubre</t>
   </si>
@@ -40,9 +41,6 @@
     <t>Entregables</t>
   </si>
   <si>
-    <t>Eventos</t>
-  </si>
-  <si>
     <t>Parcial base de datos</t>
   </si>
   <si>
@@ -50,13 +48,68 @@
   </si>
   <si>
     <t>Repositorio genérico para acceso a datos</t>
+  </si>
+  <si>
+    <t>Infraestructura extensible para creación y configuración de reglas y acciones</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Base de datos pre-cargada con Materias, Cursos, Cuentas de e-mail y configuraciones</t>
+  </si>
+  <si>
+    <t>Regla entrega TP (guardando a DB)</t>
+  </si>
+  <si>
+    <t>Regla alta grupo (guardando a DB)</t>
+  </si>
+  <si>
+    <t>Regla alta Materia (guardando a DB)</t>
+  </si>
+  <si>
+    <t>Actualmente fuera de scope:</t>
+  </si>
+  <si>
+    <t>Regla consulta tema (alta ticket)</t>
+  </si>
+  <si>
+    <t>Regla consulta tema (seguimiento respuestas ticket)</t>
+  </si>
+  <si>
+    <t>Patrones de asunto de reglas configurables</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
+  <si>
+    <t>Bug fixing / estabilización</t>
+  </si>
+  <si>
+    <t>(*) Sujeto a disponibilidad de tiempo. Podría no hacerse si durante la fase de estabilización se prioriza la resolución de bugs por sobre la interfaz. Esto se discutirá con el cliente en la iteración previa.
+También dependiendo de la disponibilidad de tiempo se podría elegir hacer una aplicación de escritorio o una web.</t>
+  </si>
+  <si>
+    <t>Interfaz de usuario para cargar materias, cursos, cuentas y configuraciones (*)</t>
+  </si>
+  <si>
+    <t>Aplicación de consola capaz de monitorear cuentas de e-mail (ejecutada manualmente)</t>
+  </si>
+  <si>
+    <t>Interfaz para configurar reglas (workaround: manualmente cambiar archivos configuración)</t>
+  </si>
+  <si>
+    <t>Estadísticas (workaround: crear vistas en la DB)</t>
+  </si>
+  <si>
+    <t>Guardar datos es una Google Spreadsheet (se utilizara una base de datos)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,8 +117,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,12 +135,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -248,12 +315,41 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -263,43 +359,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,67 +734,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="109" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.85546875" customWidth="1"/>
+    <col min="7" max="8" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="15"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="15">
         <v>11</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="16">
         <v>18</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="17">
         <v>25</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="21">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10">
-        <v>15</v>
-      </c>
-      <c r="H2" s="10">
-        <v>22</v>
-      </c>
-      <c r="I2" s="14">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -674,120 +795,259 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
+      <c r="A9" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
+      <c r="E9" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="29">
+        <v>8</v>
+      </c>
+      <c r="C13" s="29">
+        <v>15</v>
+      </c>
+      <c r="D13" s="29">
+        <v>22</v>
+      </c>
+      <c r="E13" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="E24:E26"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/MapaDeEntregables.xlsx
+++ b/docs/MapaDeEntregables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa de entregables" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Patrones de asunto de reglas configurables</t>
   </si>
   <si>
-    <t>Documentación</t>
-  </si>
-  <si>
     <t>Bug fixing / estabilización</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Guardar datos es una Google Spreadsheet (se utilizara una base de datos)</t>
+  </si>
+  <si>
+    <t>Documentación de uso</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A18"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +921,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,16 +936,16 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
     <row r="22" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1034,17 +1034,17 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/MapaDeEntregables.xlsx
+++ b/docs/MapaDeEntregables.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Octubre</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Documentación de uso</t>
+  </si>
+  <si>
+    <t>Posible viaje por motivos laborales de un integrante</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -359,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -367,15 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -394,6 +394,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,36 +433,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,102 +764,102 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>11</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>18</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>25</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1"/>
@@ -858,7 +868,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -869,7 +879,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -880,13 +890,13 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -894,21 +904,21 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="29">
+      <c r="B13" s="16">
         <v>8</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="16">
         <v>15</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="16">
         <v>22</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -925,7 +935,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -940,7 +950,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -949,55 +959,57 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="30"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="30"/>
+      <c r="E26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
